--- a/17 - Análise dos Eventos Para Cada Cenário (2).xlsx
+++ b/17 - Análise dos Eventos Para Cada Cenário (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo Santiago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo Santiago\Desktop\FINAL ENGENHARIA DE REQUISITOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBF5DEE-D2F6-432C-B9D3-D118524C6B56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1389F4-DFA3-45AE-9B5B-F1D67317300F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Analise dos eventos" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <r>
       <t>Externo</t>
@@ -207,15 +206,6 @@
     <t>x(1)</t>
   </si>
   <si>
-    <t>x(5)</t>
-  </si>
-  <si>
-    <t>Agendar Consulta</t>
-  </si>
-  <si>
-    <t>Cancelar Consulta</t>
-  </si>
-  <si>
     <t>Cidadão informa data e horários desejados</t>
   </si>
   <si>
@@ -225,26 +215,35 @@
     <t>Cidadão solicita consulta</t>
   </si>
   <si>
-    <t>Receber Atendimento</t>
-  </si>
-  <si>
     <t>Cidadão solicita atendimento</t>
   </si>
   <si>
     <t>Médico chama cidadão ao consultório</t>
   </si>
   <si>
-    <t xml:space="preserve">Cidadão Recebe atendimento </t>
-  </si>
-  <si>
     <t>x(4)</t>
+  </si>
+  <si>
+    <t>Tratar Agendar Consulta</t>
+  </si>
+  <si>
+    <t>Tratar Cancelar Consulta</t>
+  </si>
+  <si>
+    <t>Tratar Encaminhar Atendimento ao Médico</t>
+  </si>
+  <si>
+    <t>Tratar Receber Atendimento</t>
+  </si>
+  <si>
+    <t>Atendente informa chegada do cidadão</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +275,13 @@
       <b/>
       <vertAlign val="superscript"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -319,7 +325,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -526,22 +532,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -558,9 +553,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -594,30 +586,36 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -631,7 +629,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -642,6 +640,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,7 +991,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H14"/>
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,26 +1005,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="26" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1039,22 +1046,22 @@
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="20" t="s">
+    <row r="3" spans="1:10" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="19">
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
@@ -1063,16 +1070,16 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="17"/>
+      <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="6">
+    <row r="4" spans="1:10" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="19">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -1081,20 +1088,20 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="17"/>
+      <c r="J4" s="16"/>
     </row>
-    <row r="5" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="1:10" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="20">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
@@ -1103,71 +1110,75 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="17"/>
+      <c r="J5" s="16"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="21">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="13">
+    <row r="7" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="21">
         <v>5</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>22</v>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="F7" s="36"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="13">
+    <row r="8" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22">
         <v>6</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>23</v>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="F8" s="9"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A6:A8"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
